--- a/Master Item Template File.xlsx
+++ b/Master Item Template File.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A3A401AA-D6BC-4273-A4EC-C3884028428D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="4" r:id="rId1"/>
     <sheet name="Dimensions" sheetId="3" r:id="rId2"/>
     <sheet name="Measures" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>%MI%DimensionField</t>
   </si>
@@ -112,11 +111,23 @@
 Measure: Expression, Name
 Dimension: Field, Name</t>
   </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>$(VG_LAB_Sales)</t>
+  </si>
+  <si>
+    <t>$(VG_DEF_Sales(Blanc1,Blanc,Blanc,Blanc))</t>
+  </si>
+  <si>
+    <t>Försäljingen i SEK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,7 +238,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -245,6 +256,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -540,148 +554,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61466D8-D93A-4654-AA13-A8A7832FE511}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A5:N8"/>
@@ -693,25 +707,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A50E883-CDBE-4A45-85D4-4AB8021491C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -734,7 +748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -757,253 +771,253 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>
       <c r="G5" t="str">
         <f t="shared" ref="G5:G44" si="0">IF(B5&lt;&gt;"", G4+1, "")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1016,26 +1030,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD163D6C-8B34-4D57-AA0E-EF936926252F}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1058,7 +1072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
@@ -1079,6 +1093,29 @@
       </c>
       <c r="G2" s="5">
         <v>20001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="5">
+        <v>20002</v>
       </c>
     </row>
   </sheetData>
